--- a/results/mp/logistic/corona/confidence/210/0.1/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="80">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,48 +40,45 @@
     <t>name</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
     <t>died</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
+    <t>drop</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -91,172 +88,169 @@
     <t>stop</t>
   </si>
   <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>a</t>
+    <t>19</t>
   </si>
   <si>
     <t>co</t>
   </si>
   <si>
-    <t>the</t>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>and</t>
   </si>
   <si>
     <t>to</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>and</t>
   </si>
   <si>
     <t>.</t>
@@ -625,10 +619,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -686,13 +680,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7568493150684932</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C3">
-        <v>221</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>221</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -704,19 +698,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -728,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -736,13 +730,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7241379310344828</v>
+        <v>0.7534246575342466</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -754,19 +748,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K4">
-        <v>0.9333333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L4">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="M4">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -778,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -786,13 +780,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6842105263157895</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -804,19 +798,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K5">
-        <v>0.925</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -828,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -836,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6153846153846154</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -854,19 +848,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K6">
-        <v>0.9230769230769231</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -878,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -886,13 +880,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5588235294117647</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -904,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K7">
-        <v>0.9152542372881356</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L7">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="M7">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -928,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -936,13 +930,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4736842105263158</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -954,19 +948,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K8">
-        <v>0.8947368421052632</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L8">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="M8">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -978,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -986,13 +980,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4666666666666667</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1004,19 +998,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K9">
-        <v>0.8571428571428571</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L9">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="M9">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1028,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1036,13 +1030,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4444444444444444</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1054,19 +1048,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K10">
-        <v>0.8485639686684073</v>
+        <v>0.8125</v>
       </c>
       <c r="L10">
-        <v>325</v>
+        <v>13</v>
       </c>
       <c r="M10">
-        <v>325</v>
+        <v>13</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1078,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1086,13 +1080,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4074074074074074</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="C11">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1104,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K11">
-        <v>0.8333333333333334</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="L11">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="M11">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1128,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1136,13 +1130,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3513513513513514</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1157,16 +1151,16 @@
         <v>24</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K12">
-        <v>0.8333333333333334</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L12">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="M12">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1178,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1186,13 +1180,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3333333333333333</v>
+        <v>0.3372093023255814</v>
       </c>
       <c r="C13">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D13">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1204,19 +1198,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K13">
-        <v>0.8301886792452831</v>
+        <v>0.8093994778067886</v>
       </c>
       <c r="L13">
-        <v>88</v>
+        <v>310</v>
       </c>
       <c r="M13">
-        <v>88</v>
+        <v>310</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1228,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>18</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1236,7 +1230,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3333333333333333</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="C14">
         <v>17</v>
@@ -1254,19 +1248,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K14">
-        <v>0.8125</v>
+        <v>0.796875</v>
       </c>
       <c r="L14">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="M14">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1278,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1286,49 +1280,49 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2266666666666667</v>
+        <v>0.1866666666666667</v>
       </c>
       <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>61</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15">
+        <v>0.7926829268292683</v>
+      </c>
+      <c r="L15">
+        <v>65</v>
+      </c>
+      <c r="M15">
+        <v>65</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>17</v>
-      </c>
-      <c r="D15">
-        <v>17</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>58</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K15">
-        <v>0.8125</v>
-      </c>
-      <c r="L15">
-        <v>13</v>
-      </c>
-      <c r="M15">
-        <v>13</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1336,13 +1330,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2203389830508475</v>
+        <v>0.1812080536912752</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1354,19 +1348,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K16">
-        <v>0.7948717948717948</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L16">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M16">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1378,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1386,13 +1380,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2147651006711409</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C17">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D17">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1404,19 +1398,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>117</v>
+        <v>320</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K17">
-        <v>0.7931034482758621</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L17">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="M17">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1428,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1436,13 +1430,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.1138888888888889</v>
+        <v>0.05952380952380952</v>
       </c>
       <c r="C18">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1454,19 +1448,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>319</v>
+        <v>237</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K18">
-        <v>0.7804878048780488</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L18">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="M18">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1478,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1486,37 +1480,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.05158730158730158</v>
+        <v>0.006074766355140187</v>
       </c>
       <c r="C19">
         <v>13</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>239</v>
+        <v>2127</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K19">
-        <v>0.7676056338028169</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L19">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="M19">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1528,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1536,263 +1530,167 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.006734006734006734</v>
+        <v>0.004829362524146813</v>
       </c>
       <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="D20">
         <v>16</v>
       </c>
-      <c r="D20">
-        <v>19</v>
-      </c>
       <c r="E20">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
       <c r="F20">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>2360</v>
+        <v>3091</v>
       </c>
       <c r="J20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="L20">
+        <v>30</v>
+      </c>
+      <c r="M20">
+        <v>30</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="J21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21">
+        <v>0.75625</v>
+      </c>
+      <c r="L21">
+        <v>121</v>
+      </c>
+      <c r="M21">
+        <v>121</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="J22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22">
+        <v>0.7446808510638298</v>
+      </c>
+      <c r="L22">
+        <v>35</v>
+      </c>
+      <c r="M22">
+        <v>35</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="J23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K23">
+        <v>0.7301587301587301</v>
+      </c>
+      <c r="L23">
+        <v>46</v>
+      </c>
+      <c r="M23">
+        <v>46</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="J24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K20">
-        <v>0.7575757575757576</v>
-      </c>
-      <c r="L20">
-        <v>25</v>
-      </c>
-      <c r="M20">
-        <v>25</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.005637467476149176</v>
-      </c>
-      <c r="C21">
-        <v>13</v>
-      </c>
-      <c r="D21">
+      <c r="K24">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="L24">
         <v>16</v>
       </c>
-      <c r="E21">
-        <v>0.19</v>
-      </c>
-      <c r="F21">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>2293</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K21">
-        <v>0.75</v>
-      </c>
-      <c r="L21">
-        <v>27</v>
-      </c>
-      <c r="M21">
-        <v>27</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.00547680412371134</v>
-      </c>
-      <c r="C22">
-        <v>17</v>
-      </c>
-      <c r="D22">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>0.15</v>
-      </c>
-      <c r="F22">
-        <v>0.85</v>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>3087</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K22">
-        <v>0.7421875</v>
-      </c>
-      <c r="L22">
-        <v>95</v>
-      </c>
-      <c r="M22">
-        <v>95</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>0.003107399495047582</v>
-      </c>
-      <c r="C23">
+      <c r="M24">
         <v>16</v>
       </c>
-      <c r="D23">
-        <v>32</v>
-      </c>
-      <c r="E23">
-        <v>0.5</v>
-      </c>
-      <c r="F23">
-        <v>0.5</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>5133</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K23">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="L23">
-        <v>16</v>
-      </c>
-      <c r="M23">
-        <v>16</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>0.003012746234067208</v>
-      </c>
-      <c r="C24">
-        <v>13</v>
-      </c>
-      <c r="D24">
-        <v>26</v>
-      </c>
-      <c r="E24">
-        <v>0.5</v>
-      </c>
-      <c r="F24">
-        <v>0.5</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>4302</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K24">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="L24">
-        <v>34</v>
-      </c>
-      <c r="M24">
-        <v>34</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K25">
-        <v>0.7021276595744681</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L25">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M25">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1804,21 +1702,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K26">
-        <v>0.6857142857142857</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L26">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M26">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1830,21 +1728,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K27">
-        <v>0.6825396825396826</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L27">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="M27">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1856,21 +1754,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K28">
-        <v>0.6818181818181818</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L28">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M28">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1882,47 +1780,47 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K29">
-        <v>0.6666666666666666</v>
+        <v>0.64</v>
       </c>
       <c r="L29">
+        <v>32</v>
+      </c>
+      <c r="M29">
+        <v>32</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>18</v>
-      </c>
-      <c r="M29">
-        <v>18</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K30">
-        <v>0.6428571428571429</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L30">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M30">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1934,21 +1832,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K31">
-        <v>0.6176470588235294</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L31">
-        <v>210</v>
+        <v>17</v>
       </c>
       <c r="M31">
-        <v>210</v>
+        <v>17</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1960,21 +1858,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>130</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K32">
-        <v>0.6071428571428571</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L32">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M32">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1986,21 +1884,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K33">
-        <v>0.6046511627906976</v>
+        <v>0.625</v>
       </c>
       <c r="L33">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="M33">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2012,21 +1910,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K34">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="L34">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M34">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2038,21 +1936,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K35">
-        <v>0.5833333333333334</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L35">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M35">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2064,21 +1962,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K36">
-        <v>0.58</v>
+        <v>0.5941422594142259</v>
       </c>
       <c r="L36">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="M36">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2090,21 +1988,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K37">
-        <v>0.5774058577405857</v>
+        <v>0.5911764705882353</v>
       </c>
       <c r="L37">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c r="M37">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2116,21 +2014,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>101</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K38">
-        <v>0.5757575757575758</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L38">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="M38">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2142,21 +2040,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K39">
-        <v>0.5652173913043478</v>
+        <v>0.575</v>
       </c>
       <c r="L39">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M39">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2168,21 +2066,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K40">
-        <v>0.5538461538461539</v>
+        <v>0.5694915254237288</v>
       </c>
       <c r="L40">
-        <v>36</v>
+        <v>168</v>
       </c>
       <c r="M40">
-        <v>36</v>
+        <v>168</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2194,21 +2092,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>29</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K41">
-        <v>0.5457627118644067</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L41">
-        <v>161</v>
+        <v>13</v>
       </c>
       <c r="M41">
-        <v>161</v>
+        <v>13</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2220,12 +2118,12 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>134</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K42">
         <v>0.5428571428571428</v>
@@ -2251,16 +2149,16 @@
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K43">
-        <v>0.5425531914893617</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L43">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="M43">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2272,21 +2170,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K44">
-        <v>0.4642857142857143</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="L44">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M44">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2298,21 +2196,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K45">
-        <v>0.4269662921348314</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L45">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M45">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2324,21 +2222,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K46">
-        <v>0.4047619047619048</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="L46">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="M46">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2350,21 +2248,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K47">
-        <v>0.392156862745098</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L47">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M47">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2376,21 +2274,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K48">
-        <v>0.3333333333333333</v>
+        <v>0.3150684931506849</v>
       </c>
       <c r="L48">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M48">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2402,12 +2300,12 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K49">
         <v>0.3111111111111111</v>
@@ -2433,16 +2331,16 @@
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K50">
-        <v>0.2876712328767123</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L50">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M50">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2454,105 +2352,105 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K51">
-        <v>0.01585976627712855</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="L51">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M51">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N51">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>1179</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K52">
-        <v>0.004874390701162355</v>
+        <v>0.203125</v>
       </c>
       <c r="L52">
         <v>13</v>
       </c>
       <c r="M52">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N52">
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>2654</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="K53">
-        <v>0.003107399495047582</v>
+        <v>0.004876219054763691</v>
       </c>
       <c r="L53">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M53">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N53">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="O53">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>5133</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="K54">
-        <v>0.003012746234067208</v>
+        <v>0.003243744207599629</v>
       </c>
       <c r="L54">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M54">
         <v>26</v>
       </c>
       <c r="N54">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="O54">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
@@ -2563,28 +2461,28 @@
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K55">
-        <v>0.002807298977341087</v>
+        <v>0.002806173581880136</v>
       </c>
       <c r="L55">
         <v>14</v>
       </c>
       <c r="M55">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N55">
-        <v>0.61</v>
+        <v>0.67</v>
       </c>
       <c r="O55">
-        <v>0.39</v>
+        <v>0.33</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>4973</v>
+        <v>4975</v>
       </c>
     </row>
   </sheetData>
